--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -451,1023 +451,1383 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>398041</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>中海量化策略混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>95.40</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>008838</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>66.58</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>008839</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>66.58</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008184</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>167702</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>167703</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>89.14</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>512350</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>兴业中证福建50ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>98.54</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009595</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>山西证券裕盛一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1477,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,15 +1858,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>512880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>国泰中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.44</t>
+          <t>348.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华宝中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>243.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>512900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>南方中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>161720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>招商中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>29.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>398041</t>
+          <t>163113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海量化策略混合</t>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501016</t>
+          <t>159993</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
+          <t>鹏华国证证券龙头ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501047</t>
+          <t>501016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
+          <t>国泰中证申万证券行业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501048</t>
+          <t>161027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
+          <t>富国中证全指证券公司指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>501047</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达证券公司指数（LOF）</t>
+          <t>汇添富中证全指证券公司指数LOF A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>008590</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>天弘中证全指证券公司指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>160633</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.08</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>008591</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>天弘中证全指证券公司指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007469</t>
+          <t>515560</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合C</t>
+          <t>建信中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>501048</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝中证全指证券公司ETF</t>
+          <t>汇添富中证全指证券公司指数LOF C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.83</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512350</t>
+          <t>519997</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴业中证福建50ETF</t>
+          <t>长信银利精选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>512570</t>
+          <t>398041</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达中证全指证券公司ETF</t>
+          <t>中海量化策略混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>512880</t>
+          <t>515010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰中证全指证券公司ETF</t>
+          <t>华夏中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>99.85</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>512900</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方中证全指证券公司ETF</t>
+          <t>易方达证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99.91</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515010</t>
+          <t>160419</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏中证全指证券公司ETF</t>
+          <t>华安中证全指证券公司指数（LOF）A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.84</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>515560</t>
+          <t>159841</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建信中证全指证券公司ETF</t>
+          <t>天弘中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>515850</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中证全指证券公司ETF</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>159841</t>
+          <t>160516</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘中证全指证券公司ETF</t>
+          <t>博时中证全指证券公司指数</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>98.34</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159993</t>
+          <t>502053</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华国证证券龙头ETF</t>
+          <t>长盛中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>160419</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>519997</t>
+          <t>512350</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长信银利精选混合</t>
+          <t>兴业中证福建50ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2218,25 +2838,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160516</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时中证全指证券公司指数</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160633</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>161027</t>
+          <t>003822</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>富国中证全指证券公司指数</t>
+          <t>中信建投行业轮换混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>161720</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>163113</t>
+          <t>005248</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
+          <t>新华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008590</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天弘中证全指证券公司指数A</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2386,25 +3066,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008591</t>
+          <t>515850</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天弘中证全指证券公司指数C</t>
+          <t>富国中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005248</t>
+          <t>512570</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>新华沪深300指数增强A</t>
+          <t>易方达中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008184</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新华沪深300指数增强C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2470,25 +3180,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2498,25 +3218,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>007469</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>中信建投策略精选混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>84.37</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>008184</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>新华沪深300指数增强C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>84.37</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2554,25 +3294,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>008348</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>中信建投价值甄选混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>87.38</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>4.63</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>87.38</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3367,4 +3368,2036 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7996</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5717</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5400,4 +5401,2530 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6741</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7927,4 +7928,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7936,7 +7937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7947,17 +7948,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7967,14 +7988,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.26</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7983,14 +8026,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.37</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7999,14 +8064,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.04</v>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8015,13 +8102,2659 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5616</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7914</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009245</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>25.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10653,7 +10654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10664,17 +10665,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10684,14 +10705,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.34</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10700,14 +10743,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.26</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -10716,14 +10781,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.37</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -10732,14 +10819,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.04</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -10748,13 +10857,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>25.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12230,7 +12231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12241,17 +12242,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12261,14 +12282,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.24</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -12277,14 +12320,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.34</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -12293,14 +12358,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.26</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12309,14 +12396,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.37</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -12325,14 +12434,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>39</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.04</v>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -12341,13 +12472,1399 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>25.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>21.08</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>25.24</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>39.34</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>33.26</v>
+        <v>39.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>31.37</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>27.04</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>25.08</v>
       </c>
     </row>
@@ -600,6 +617,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2913</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +3806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3675,7 +5382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6391,7 +8098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8917,7 +10624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10949,7 +12656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12487,7 +14194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601377-兴业证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>24.53</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>25.24</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>39.34</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>33.26</v>
+        <v>39.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>31.37</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>27.04</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1416 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>25.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2020,1886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +5589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3806,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5382,7 +8665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8098,7 +11381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10624,7 +13907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12656,7 +15939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14192,1390 +17475,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.1542</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.9691</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7514</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3889</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9956</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7858</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5784</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4549</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4221</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3179</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2915</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2868</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2606</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>398041</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中海量化策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2416</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1836</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1754</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1488</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.14</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>512350</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>兴业中证福建50ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>98.54</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0579</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008184</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>167702</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009595</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>山西证券裕盛一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>167703</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>